--- a/docentes/Martínez López Miguel Ángel - Estadisticos 20242.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 20242.xlsx
@@ -784,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/docentes/Martínez López Miguel Ángel - Estadisticos 20242.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Mat</t>
   </si>
@@ -79,25 +79,16 @@
     <t>CHONKOA</t>
   </si>
   <si>
-    <t>PUGA</t>
-  </si>
-  <si>
     <t>VALIENTE</t>
   </si>
   <si>
     <t>SANDOVAL</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>DIEGO DE JESUS</t>
   </si>
   <si>
     <t>ABRIL</t>
-  </si>
-  <si>
-    <t>HILEN ALELI</t>
   </si>
 </sst>
 </file>
@@ -595,16 +586,19 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>93.33</v>
+      </c>
+      <c r="H2">
+        <v>7.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -618,16 +612,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +692,7 @@
         <v>93.33</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -712,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +728,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +769,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -795,10 +792,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -807,29 +804,6 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22330051920073</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
     </row>
